--- a/bio_diversity/static/test/parser_test_files/test-electrofishing-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-electrofishing-cb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>WS</t>
+  </si>
+  <si>
+    <t>Cool Site</t>
+  </si>
+  <si>
+    <t>Saw Fish</t>
+  </si>
+  <si>
+    <t>It’s a test!</t>
   </si>
 </sst>
 </file>
@@ -580,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +800,9 @@
       <c r="AC4">
         <v>500</v>
       </c>
+      <c r="AD4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -854,6 +866,9 @@
       <c r="AC5">
         <v>500</v>
       </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -889,6 +904,9 @@
       </c>
       <c r="U6">
         <v>150</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-electrofishing-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-electrofishing-cb.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37962FEF-1584-48B9-8656-FDF9308DBB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="4470" yWindow="5970" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="Sample Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Year</t>
   </si>
@@ -173,12 +183,15 @@
   </si>
   <si>
     <t>It’s a test!</t>
+  </si>
+  <si>
+    <t># of salmon released</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -586,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,142 +615,104 @@
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="18" max="19" width="10.140625" customWidth="1"/>
-    <col min="20" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" customWidth="1"/>
+    <col min="20" max="21" width="16.42578125" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="1"/>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
@@ -776,35 +751,35 @@
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="U4">
+        <v>110</v>
+      </c>
       <c r="V4">
         <v>110</v>
       </c>
       <c r="W4">
-        <v>110</v>
-      </c>
-      <c r="X4">
         <v>4</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z4" s="9">
-        <v>1.1000000000000001</v>
+      <c r="Z4">
+        <v>350</v>
       </c>
       <c r="AA4">
         <v>350</v>
       </c>
       <c r="AB4">
-        <v>350</v>
-      </c>
-      <c r="AC4">
         <v>500</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -842,35 +817,35 @@
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="U5">
+        <v>200</v>
+      </c>
       <c r="V5">
         <v>200</v>
       </c>
       <c r="W5">
-        <v>200</v>
-      </c>
-      <c r="X5">
         <v>5</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y5" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z5" s="9">
-        <v>1.1000000000000001</v>
+      <c r="Z5">
+        <v>788</v>
       </c>
       <c r="AA5">
         <v>788</v>
       </c>
       <c r="AB5">
-        <v>788</v>
-      </c>
-      <c r="AC5">
         <v>500</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
@@ -902,26 +877,21 @@
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U6">
+      <c r="T6">
         <v>150</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
